--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -138,6 +139,102 @@
   </si>
   <si>
     <t>A message ' Name Can't be blank' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name, Customer Address,Mobile ,Email,Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt;, &lt;Address&gt;, &lt;mobile no.&gt;, &lt;Email &gt;,  &lt;Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer added successfully' is shown</t>
+  </si>
+  <si>
+    <t>customer details should  be valid as per conditions while adding customer</t>
+  </si>
+  <si>
+    <t>&lt;Name INVALID&gt;, &lt;Address&gt;, &lt;mobile no.&gt;, &lt;Email &gt;,  &lt;Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer name should contain atleast two character' is shown</t>
+  </si>
+  <si>
+    <t>Enter  invalid Customer name, Customer Address,Mobile ,Email,Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>Enter Customer name,invalid  Customer Address,Mobile ,Email,Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name &gt;, &lt;AddressINVALID&gt;, &lt;mobile no.&gt;, &lt;Email &gt;,  &lt;Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer address should contain atleast two character' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name, Customer Address,Invalid Mobile ,Email,Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name &gt;, &lt;Address&gt;, &lt;mobile no.INVALID&gt;, &lt;Email &gt;,  &lt;Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer mobile number is invalid ' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name, Customer Address,Mobile , invalid Email,Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name &gt;, &lt;Address&gt;, &lt;mobile no.&gt;, &lt;INVALID Email &gt;,  &lt;Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer Email ID  is invalid' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name, Customer Address,Mobile ,Email,Invalid Aadhar number,PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name &gt;, &lt;Address&gt;, &lt;mobile no.&gt;, &lt;Email &gt;,  &lt;INVALID Aadharno&gt;, &lt;PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message ' Aadhar number is invalid' is shown</t>
+  </si>
+  <si>
+    <t>Enter Customer name, Customer Address,Mobile ,Email,Aadhar number,invalid PAN number .</t>
+  </si>
+  <si>
+    <t>&lt;Name &gt;, &lt;Address&gt;, &lt;mobile no.&gt;, &lt;Email &gt;,  &lt;Aadharno&gt;, &lt;INVALID PANno &gt;</t>
+  </si>
+  <si>
+    <t>A message 'PAN number is invalid' is shown</t>
+  </si>
+  <si>
+    <t>TC_SEARCH CUSTOMER_001</t>
+  </si>
+  <si>
+    <t>Search customer if customer number is valid</t>
+  </si>
+  <si>
+    <t>customer number should be valid while searching</t>
+  </si>
+  <si>
+    <t>Enter  valid Customer number</t>
+  </si>
+  <si>
+    <t>Enter customer number.</t>
+  </si>
+  <si>
+    <t>&lt;CustomerNumber&gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer found' is shown</t>
+  </si>
+  <si>
+    <t>Enter  invalid Customer number</t>
+  </si>
+  <si>
+    <t>&lt;INVALID CustomerNumber&gt;</t>
+  </si>
+  <si>
+    <t>A message ' Customer not found' is shown</t>
   </si>
 </sst>
 </file>
@@ -630,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,6 +965,167 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -876,9 +1134,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.08984375" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="26.26953125" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
